--- a/Foundation_Pile_Design_FHWA.xlsx
+++ b/Foundation_Pile_Design_FHWA.xlsx
@@ -542,11 +542,11 @@
         </is>
       </c>
       <c r="B12" s="3" t="n">
-        <v>18.5</v>
+        <v>115</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>kN/m³</t>
+          <t>pcf</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>kPa</t>
+          <t>psf</t>
         </is>
       </c>
     </row>
@@ -594,11 +594,11 @@
         </is>
       </c>
       <c r="B17" s="3" t="n">
-        <v>2</v>
+        <v>6.5</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>ft</t>
         </is>
       </c>
     </row>
@@ -609,11 +609,11 @@
         </is>
       </c>
       <c r="B18" s="3" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>ft</t>
         </is>
       </c>
     </row>
@@ -624,11 +624,11 @@
         </is>
       </c>
       <c r="B19" s="3" t="n">
-        <v>1.5</v>
+        <v>5</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>ft</t>
         </is>
       </c>
     </row>
@@ -646,11 +646,11 @@
         </is>
       </c>
       <c r="B22" s="3" t="n">
-        <v>1000</v>
+        <v>225000</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>kN</t>
+          <t>lbs</t>
         </is>
       </c>
     </row>
@@ -661,11 +661,11 @@
         </is>
       </c>
       <c r="B23" s="3" t="n">
-        <v>50</v>
+        <v>11250</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>kN</t>
+          <t>lbs</t>
         </is>
       </c>
     </row>
@@ -676,11 +676,11 @@
         </is>
       </c>
       <c r="B24" s="3" t="n">
-        <v>75</v>
+        <v>55300</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>kN·m</t>
+          <t>lb·ft</t>
         </is>
       </c>
     </row>
@@ -698,11 +698,11 @@
         </is>
       </c>
       <c r="B27" s="3" t="n">
-        <v>5</v>
+        <v>16.5</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>ft</t>
         </is>
       </c>
     </row>
@@ -873,7 +873,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>kPa</t>
+          <t>psf</t>
         </is>
       </c>
     </row>
@@ -889,7 +889,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>kPa</t>
+          <t>psf</t>
         </is>
       </c>
     </row>
@@ -905,7 +905,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>kPa</t>
+          <t>psf</t>
         </is>
       </c>
     </row>
@@ -921,7 +921,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>kPa</t>
+          <t>psf</t>
         </is>
       </c>
     </row>
@@ -959,7 +959,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>kPa</t>
+          <t>psf</t>
         </is>
       </c>
     </row>
@@ -982,7 +982,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>kPa</t>
+          <t>psf</t>
         </is>
       </c>
     </row>
@@ -1128,11 +1128,11 @@
         </is>
       </c>
       <c r="B13" s="3" t="n">
-        <v>0.35</v>
+        <v>14</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>in</t>
         </is>
       </c>
     </row>
@@ -1143,11 +1143,11 @@
         </is>
       </c>
       <c r="B14" s="3" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>ft</t>
         </is>
       </c>
     </row>
@@ -1158,12 +1158,12 @@
         </is>
       </c>
       <c r="B15" s="5">
-        <f>PI()*B15</f>
+        <f>PI()*B15/12</f>
         <v/>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>ft</t>
         </is>
       </c>
     </row>
@@ -1181,11 +1181,11 @@
         </is>
       </c>
       <c r="B18" s="3" t="n">
-        <v>18.5</v>
+        <v>115</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>kN/m³</t>
+          <t>pcf</t>
         </is>
       </c>
     </row>
@@ -1211,11 +1211,11 @@
         </is>
       </c>
       <c r="B20" s="3" t="n">
-        <v>25</v>
+        <v>520</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>kPa</t>
+          <t>psf</t>
         </is>
       </c>
     </row>
@@ -1230,7 +1230,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>blows/300mm</t>
+          <t>blows/12in</t>
         </is>
       </c>
     </row>
@@ -1248,11 +1248,11 @@
         </is>
       </c>
       <c r="B24" s="3" t="n">
-        <v>500</v>
+        <v>112500</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>kN</t>
+          <t>lbs</t>
         </is>
       </c>
     </row>
@@ -1304,7 +1304,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>kPa</t>
+          <t>psf</t>
         </is>
       </c>
     </row>
@@ -1320,7 +1320,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>kN</t>
+          <t>lbs</t>
         </is>
       </c>
     </row>
@@ -1359,7 +1359,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>kPa</t>
+          <t>psf</t>
         </is>
       </c>
     </row>
@@ -1375,7 +1375,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>kPa</t>
+          <t>psf</t>
         </is>
       </c>
     </row>
@@ -1391,7 +1391,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>kN</t>
+          <t>lbs</t>
         </is>
       </c>
     </row>
@@ -1430,7 +1430,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>kPa</t>
+          <t>psf</t>
         </is>
       </c>
     </row>
@@ -1446,7 +1446,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>kPa (Nc=9.14 for φ=30°)</t>
+          <t>psf (Nc=9.14 for φ=30°)</t>
         </is>
       </c>
     </row>
@@ -1457,12 +1457,12 @@
         </is>
       </c>
       <c r="B45" s="5">
-        <f>B44*PI()*((B15/2)^2)</f>
+        <f>B44*PI()*((B15/12/2)^2)</f>
         <v/>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>kN</t>
+          <t>lbs</t>
         </is>
       </c>
     </row>
@@ -1485,7 +1485,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>kN (use max of clay or sand method)</t>
+          <t>lbs (use max of clay or sand method)</t>
         </is>
       </c>
     </row>
@@ -1523,7 +1523,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>kN</t>
+          <t>lbs</t>
         </is>
       </c>
     </row>
@@ -1546,7 +1546,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>kN</t>
+          <t>lbs</t>
         </is>
       </c>
     </row>
@@ -1601,11 +1601,11 @@
         </is>
       </c>
       <c r="B63" s="3" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>m (recommend 3D min)</t>
+          <t>ft (recommend 3D min)</t>
         </is>
       </c>
     </row>
@@ -1636,7 +1636,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>kN</t>
+          <t>lbs</t>
         </is>
       </c>
     </row>
